--- a/문서/설계/자전거boM들.xlsx
+++ b/문서/설계/자전거boM들.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1245,7 +1245,7 @@
   <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,144 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2791,4 +2657,138 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>